--- a/outputs/SORs/SOR Testing_AMC Power Management Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Power Management Division.xlsx
@@ -6,14 +6,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Apodaca Pmc Plant 2 Mexico" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Bowling Green Ohio" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Hyderabad India" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Langley" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Langley Canada" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Las Vegas Nevada" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Marengo Illinois" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mississauga Canada" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Bowling Green Ohio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hyderabad India" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Langley" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Langley Canada" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Las Vegas Nevada" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Marengo Illinois" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Mississauga Canada" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Apodaca Pmc Plant 2 Mexico" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">AMC Power Management Division</t>
   </si>
   <si>
-    <t xml:space="preserve">Apodaca Pmc Plant 2 Mexico</t>
+    <t xml:space="preserve">Bowling Green Ohio</t>
   </si>
   <si>
     <t xml:space="preserve">Professional Voluntary Turnover</t>
@@ -111,13 +111,10 @@
     <t xml:space="preserve">Commit/Forecast</t>
   </si>
   <si>
-    <t xml:space="preserve">Manufacturing Voluntary Turnover</t>
+    <t xml:space="preserve">Internal Fill Rate</t>
   </si>
   <si>
-    <t xml:space="preserve">Bowling Green Ohio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Fill Rate</t>
+    <t xml:space="preserve">Manufacturing Voluntary Turnover</t>
   </si>
   <si>
     <t xml:space="preserve">Hyderabad India</t>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mississauga Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apodaca Pmc Plant 2 Mexico</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>0</v>
@@ -790,58 +790,389 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1" t="n">
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>0.1429</v>
+      </c>
+      <c r="P8" s="1" t="n">
         <v>0.125</v>
       </c>
-      <c r="L5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>0</v>
+      <c r="Q8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>0.2857</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>0.6122</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0.12861</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>0.1125</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>0.25713</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>0.55098</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +1268,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -949,40 +1280,40 @@
         <v>27</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="M2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="O2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="S2" s="2" t="n">
         <v>0</v>
@@ -997,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0</v>
+        <v>0.226</v>
       </c>
     </row>
     <row r="3">
@@ -1008,7 +1339,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -1020,40 +1351,40 @@
         <v>28</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0</v>
+        <v>0.05004</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>0.05292</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0</v>
+        <v>0.1017</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0</v>
+        <v>0.05292</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0</v>
+        <v>0.05292</v>
       </c>
       <c r="O3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>0</v>
+        <v>0.05004</v>
       </c>
       <c r="Q3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0</v>
+        <v>0.05004</v>
       </c>
       <c r="S3" s="2" t="n">
         <v>0</v>
@@ -1068,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0</v>
+        <v>0.2034</v>
       </c>
     </row>
     <row r="4">
@@ -1079,7 +1410,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1091,7 +1422,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>0</v>
@@ -1100,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
@@ -1140,408 +1471,6 @@
       </c>
       <c r="W4" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="2" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0.1429</v>
-      </c>
-      <c r="P8" s="2" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="Q8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2" t="n">
-        <v>0.2857</v>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="V8" s="2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W8" s="2" t="n">
-        <v>0.6122</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0.12861</v>
-      </c>
-      <c r="P9" s="2" t="n">
-        <v>0.1125</v>
-      </c>
-      <c r="Q9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2" t="n">
-        <v>0.25713</v>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2" t="n">
-        <v>0.225</v>
-      </c>
-      <c r="V9" s="2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="W9" s="2" t="n">
-        <v>0.55098</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>0.0114</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P10" s="2" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q10" s="2" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R10" s="2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S10" s="2" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T10" s="2" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U10" s="2" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V10" s="2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W10" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1649,40 +1578,40 @@
         <v>27</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.0556</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.113</v>
+        <v>0</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>0.0588</v>
+        <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="3" t="n">
-        <v>0.0556</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="3" t="n">
-        <v>0.0556</v>
+        <v>0</v>
       </c>
       <c r="S2" s="3" t="n">
         <v>0</v>
@@ -1697,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>0.226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1720,40 +1649,40 @@
         <v>28</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.05004</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.05292</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.1017</v>
+        <v>0</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0.05292</v>
+        <v>0</v>
       </c>
       <c r="M3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>0.05292</v>
+        <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>0.05004</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>0.05004</v>
+        <v>0</v>
       </c>
       <c r="S3" s="3" t="n">
         <v>0</v>
@@ -1768,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>0.2034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1791,7 +1720,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.0556</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>0</v>
@@ -1800,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.0556</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>0</v>
@@ -1839,6 +1768,390 @@
         <v>0</v>
       </c>
       <c r="W4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.0639</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1950,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="K2" s="4" t="n">
         <v>0</v>
@@ -1965,37 +2278,37 @@
         <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>0.0241</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>0.0244</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>0.0122</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.0369</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>0.0253</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>0.0376</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>0.1126</v>
       </c>
     </row>
     <row r="3">
@@ -2021,13 +2334,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>0.0117</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>0.0117</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>0</v>
@@ -2036,37 +2349,37 @@
         <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>0.02169</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>0.02196</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>0.01098</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>0.0225</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.03321</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>0.01125</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>0.02277</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>0.03384</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>0.10134</v>
       </c>
     </row>
     <row r="4">
@@ -2101,43 +2414,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2151,26 +2464,26 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -2180,7 +2493,7 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2194,10 +2507,10 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2265,58 +2578,60 @@
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -2330,33 +2645,37 @@
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.0233</v>
+      </c>
       <c r="I8" s="4" t="n">
-        <v>0</v>
+        <v>0.0153</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0</v>
+        <v>0.0384</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0</v>
+        <v>0.0076</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0</v>
+        <v>0.0152</v>
       </c>
       <c r="O8" s="4" t="n">
         <v>0</v>
@@ -2371,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0</v>
+        <v>0.0294</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>0</v>
+        <v>0.0451</v>
       </c>
       <c r="U8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>0</v>
+        <v>0.0741</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>0</v>
+        <v>0.1273</v>
       </c>
     </row>
     <row r="9">
@@ -2397,33 +2716,37 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.02097</v>
+      </c>
       <c r="I9" s="4" t="n">
-        <v>0</v>
+        <v>0.01377</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0</v>
+        <v>0.03456</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>0</v>
+        <v>0.00684</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>0</v>
+        <v>0.00675</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>0</v>
+        <v>0.01368</v>
       </c>
       <c r="O9" s="4" t="n">
         <v>0</v>
@@ -2438,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0</v>
+        <v>0.02646</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>0</v>
+        <v>0.04059</v>
       </c>
       <c r="U9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>0</v>
+        <v>0.06669</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>0</v>
+        <v>0.11457</v>
       </c>
     </row>
     <row r="10">
@@ -2464,10 +2787,10 @@
         <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2476,52 +2799,52 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0</v>
+        <v>0.0071</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +2946,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2632,52 +2955,52 @@
         <v>0</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>0.0128</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="5" t="n">
-        <v>0.0129</v>
+        <v>0</v>
       </c>
       <c r="K2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M2" s="5" t="n">
-        <v>0.0238</v>
+        <v>0</v>
       </c>
       <c r="N2" s="5" t="n">
-        <v>0.0241</v>
+        <v>0.0935</v>
       </c>
       <c r="O2" s="5" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="5" t="n">
-        <v>0.0247</v>
+        <v>0.0909</v>
       </c>
       <c r="R2" s="5" t="n">
-        <v>0.0365</v>
+        <v>0.0855</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="5" t="n">
-        <v>0.0123</v>
+        <v>0.0909</v>
       </c>
       <c r="U2" s="5" t="n">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="V2" s="5" t="n">
-        <v>0.0372</v>
+        <v>0.0909</v>
       </c>
       <c r="W2" s="5" t="n">
-        <v>0.1112</v>
+        <v>0.2703</v>
       </c>
     </row>
     <row r="3">
@@ -2694,7 +3017,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2703,52 +3026,52 @@
         <v>0</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>0.01152</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="5" t="n">
-        <v>0.01161</v>
+        <v>0</v>
       </c>
       <c r="K3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="5" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="M3" s="5" t="n">
-        <v>0.02142</v>
+        <v>0</v>
       </c>
       <c r="N3" s="5" t="n">
-        <v>0.02169</v>
+        <v>0.08415</v>
       </c>
       <c r="O3" s="5" t="n">
-        <v>0.0108</v>
+        <v>0</v>
       </c>
       <c r="P3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="5" t="n">
-        <v>0.02223</v>
+        <v>0.08181</v>
       </c>
       <c r="R3" s="5" t="n">
-        <v>0.03285</v>
+        <v>0.07695</v>
       </c>
       <c r="S3" s="5" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="5" t="n">
-        <v>0.01107</v>
+        <v>0.08181</v>
       </c>
       <c r="U3" s="5" t="n">
-        <v>0.0225</v>
+        <v>0</v>
       </c>
       <c r="V3" s="5" t="n">
-        <v>0.03348</v>
+        <v>0.08181</v>
       </c>
       <c r="W3" s="5" t="n">
-        <v>0.10008</v>
+        <v>0.24327</v>
       </c>
     </row>
     <row r="4">
@@ -2765,7 +3088,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2774,52 +3097,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2833,30 +3156,34 @@
         <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -2876,10 +3203,10 @@
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2947,272 +3274,55 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="L7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="W7" s="5" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>0.0233</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>0.0153</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>0.0384</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0.0152</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <v>0.0294</v>
-      </c>
-      <c r="T8" s="5" t="n">
-        <v>0.0451</v>
-      </c>
-      <c r="U8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="5" t="n">
-        <v>0.0741</v>
-      </c>
-      <c r="W8" s="5" t="n">
-        <v>0.1273</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>0.02097</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>0.01377</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>0.03456</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>0.00684</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>0.00675</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0.01368</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>0.02646</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>0.04059</v>
-      </c>
-      <c r="U9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5" t="n">
-        <v>0.06669</v>
-      </c>
-      <c r="W9" s="5" t="n">
-        <v>0.11457</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O10" s="5" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P10" s="5" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q10" s="5" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R10" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S10" s="5" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T10" s="5" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U10" s="5" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V10" s="5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,40 +3446,28 @@
         <v>0</v>
       </c>
       <c r="L2" s="6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="6" t="n">
-        <v>0.0935</v>
+        <v>0</v>
       </c>
       <c r="O2" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="P2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6" t="n">
-        <v>0.0909</v>
-      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="6" t="n">
-        <v>0.0855</v>
-      </c>
-      <c r="S2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6" t="n">
-        <v>0.0909</v>
-      </c>
-      <c r="U2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="6" t="n">
-        <v>0.0909</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
       <c r="W2" s="6" t="n">
-        <v>0.2703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3407,40 +3505,28 @@
         <v>0</v>
       </c>
       <c r="L3" s="6" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="6" t="n">
-        <v>0.08415</v>
+        <v>0</v>
       </c>
       <c r="O3" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6" t="n">
-        <v>0.08181</v>
-      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="6" t="n">
-        <v>0.07695</v>
-      </c>
-      <c r="S3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6" t="n">
-        <v>0.08181</v>
-      </c>
-      <c r="U3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6" t="n">
-        <v>0.08181</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
       <c r="W3" s="6" t="n">
-        <v>0.24327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3454,62 +3540,32 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <v>0.1818</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="6" t="n">
-        <v>0.1818</v>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
       <c r="W4" s="6" t="n">
         <v>0</v>
       </c>
@@ -3525,174 +3581,62 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E5" s="6"/>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="J5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="O5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="R5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>0.5</v>
+      </c>
       <c r="W5" s="6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="6" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3793,46 +3737,32 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
+      <c r="U2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="7" t="n">
         <v>0</v>
       </c>
@@ -3850,46 +3780,32 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="U3" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="W3" s="7" t="n">
         <v>0</v>
       </c>
@@ -3905,103 +3821,64 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="H4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="K4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="W4" s="7" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V5" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="7" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4106,22 +3983,50 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="U2" s="8" t="n">
         <v>0</v>
       </c>
@@ -4143,28 +4048,56 @@
         <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="U3" s="8" t="n">
         <v>0</v>
       </c>
@@ -4172,77 +4105,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="8" t="n">
         <v>0</v>
       </c>
     </row>

--- a/outputs/SORs/SOR Testing_AMC Power Management Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Power Management Division.xlsx
@@ -14,12 +14,13 @@
     <sheet name="Marengo Illinois" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Mississauga Canada" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Apodaca Pmc Plant 2 Mexico" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Manila Philippines" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -137,12 +138,15 @@
   <si>
     <t xml:space="preserve">Apodaca Pmc Plant 2 Mexico</t>
   </si>
+  <si>
+    <t xml:space="preserve">Manila Philippines</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -151,6 +155,7 @@
     <numFmt numFmtId="170" formatCode="0.0%"/>
     <numFmt numFmtId="171" formatCode="0.0%"/>
     <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="173" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -186,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -196,6 +201,7 @@
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -737,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>0</v>
@@ -925,9 +931,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="1"/>
       <c r="M7" s="1" t="n">
         <v>0</v>
       </c>
@@ -976,7 +980,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1047,7 +1051,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1118,7 +1122,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1139,40 +1143,40 @@
         <v>0.0114</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0118</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1711,64 +1715,34 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
       <c r="I4" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3" t="n">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
       <c r="W4" s="3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -1784,32 +1758,58 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I5" s="3" t="n">
         <v>0.5</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
+      <c r="K5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="3" t="n">
+        <v>0.5</v>
+      </c>
       <c r="W5" s="3" t="n">
         <v>0.5</v>
       </c>
@@ -1825,64 +1825,60 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>1</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>0.5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W6" s="3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1896,262 +1892,59 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>1</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="L7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2414,43 +2207,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.0125</v>
+        <v>0.0115</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2467,7 +2260,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2510,7 +2303,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2581,57 +2374,57 @@
         <v>30</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>1</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
@@ -2648,7 +2441,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2719,7 +2512,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2790,7 +2583,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2799,52 +2592,52 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.007</v>
+        <v>0.0068</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.0071</v>
+        <v>0.0069</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>0.014</v>
+        <v>0.0135</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0136</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3109,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>0.2222</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -3289,9 +3082,7 @@
       <c r="K7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L7" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5" t="n">
         <v>1</v>
       </c>
@@ -3810,77 +3601,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -4051,7 +3771,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -4105,6 +3825,152 @@
         <v>0</v>
       </c>
       <c r="W3" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/outputs/SORs/SOR Testing_AMC Power Management Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Power Management Division.xlsx
@@ -580,7 +580,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.0197</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.0197</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -722,7 +722,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.0197</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -746,37 +746,37 @@
         <v>0.02</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>0.00394166666666667</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
+        <v>0.011825</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0</v>
+        <v>0.00394166666666667</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>0.00394166666666667</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0</v>
+        <v>0.00394166666666667</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>0.011825</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>0.00394166666666667</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0</v>
+        <v>0.00394166666666667</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0</v>
+        <v>0.00394166666666667</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0</v>
+        <v>0.011825</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>0.0473</v>
       </c>
     </row>
     <row r="5">
@@ -980,7 +980,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0234</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1051,7 +1051,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0234</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1122,7 +1122,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0234</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1146,37 +1146,37 @@
         <v>0.0118</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0</v>
+        <v>0.00468333333333333</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0</v>
+        <v>0.01405</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0</v>
+        <v>0.00468333333333333</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0</v>
+        <v>0.00468333333333333</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0</v>
+        <v>0.00468333333333333</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>0.01405</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>0.00468333333333333</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0</v>
+        <v>0.00468333333333333</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0</v>
+        <v>0.00468333333333333</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0</v>
+        <v>0.01405</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0</v>
+        <v>0.0562</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1349,7 +1349,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -1420,7 +1420,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1444,37 +1444,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>0.03335</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>0.03335</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0</v>
+        <v>0.0111166666666667</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0</v>
+        <v>0.03335</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0</v>
+        <v>0.1334</v>
       </c>
     </row>
   </sheetData>
@@ -1575,9 +1575,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1646,9 +1644,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1827,9 +1823,7 @@
       <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" t="s">
         <v>27</v>
       </c>
@@ -1894,9 +1888,7 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" t="s">
         <v>28</v>
       </c>
@@ -2047,7 +2039,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2118,7 +2110,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2189,7 +2181,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>0.0116</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2213,37 +2205,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>0.00231666666666667</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.00695</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.00231666666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>0.00231666666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>0.00231666666666667</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.00695</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.00231666666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>0.00231666666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>0.00231666666666667</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>0.00695</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>0.0278</v>
       </c>
     </row>
     <row r="5">
@@ -2441,7 +2433,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.0343</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2512,7 +2504,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.0343</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2583,7 +2575,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0776</v>
+        <v>0.0343</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2607,37 +2599,37 @@
         <v>0.0136</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0</v>
+        <v>0.00685833333333333</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0</v>
+        <v>0.020575</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0</v>
+        <v>0.00685833333333333</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0</v>
+        <v>0.00685833333333333</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0</v>
+        <v>0.00685833333333333</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0</v>
+        <v>0.020575</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0</v>
+        <v>0.00685833333333333</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0</v>
+        <v>0.00685833333333333</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0</v>
+        <v>0.00685833333333333</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0</v>
+        <v>0.020575</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0</v>
+        <v>0.0823</v>
       </c>
     </row>
   </sheetData>
@@ -2739,7 +2731,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0</v>
+        <v>0.3704</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2810,7 +2802,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0</v>
+        <v>0.3704</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2881,7 +2873,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>0.3704</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2905,37 +2897,37 @@
         <v>0.2222</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0</v>
+        <v>0.0740833333333333</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0</v>
+        <v>0.22225</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0</v>
+        <v>0.0740833333333333</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0</v>
+        <v>0.0740833333333333</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>0.0740833333333333</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
+        <v>0.22225</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>0.0740833333333333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0</v>
+        <v>0.0740833333333333</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0</v>
+        <v>0.0740833333333333</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0</v>
+        <v>0.22225</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0</v>
+        <v>0.889</v>
       </c>
     </row>
     <row r="5">
@@ -3215,9 +3207,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3274,9 +3264,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="6"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3528,9 +3516,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3571,9 +3557,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3700,7 +3684,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0</v>
+        <v>0.2174</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -3724,37 +3708,37 @@
         <v>0</v>
       </c>
       <c r="M2" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="N2" s="8" t="n">
-        <v>0</v>
+        <v>0.13045</v>
       </c>
       <c r="O2" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="P2" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="Q2" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="R2" s="8" t="n">
-        <v>0</v>
+        <v>0.13045</v>
       </c>
       <c r="S2" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="T2" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="U2" s="8" t="n">
-        <v>0</v>
+        <v>0.0434833333333333</v>
       </c>
       <c r="V2" s="8" t="n">
-        <v>0</v>
+        <v>0.13045</v>
       </c>
       <c r="W2" s="8" t="n">
-        <v>0</v>
+        <v>0.5218</v>
       </c>
     </row>
     <row r="3">
@@ -3771,7 +3755,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.0776</v>
+        <v>0.124</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -3795,37 +3779,37 @@
         <v>0</v>
       </c>
       <c r="M3" s="8" t="n">
-        <v>0</v>
+        <v>0.0248</v>
       </c>
       <c r="N3" s="8" t="n">
-        <v>0</v>
+        <v>0.0744</v>
       </c>
       <c r="O3" s="8" t="n">
-        <v>0</v>
+        <v>0.0248</v>
       </c>
       <c r="P3" s="8" t="n">
-        <v>0</v>
+        <v>0.0248</v>
       </c>
       <c r="Q3" s="8" t="n">
-        <v>0</v>
+        <v>0.0248</v>
       </c>
       <c r="R3" s="8" t="n">
-        <v>0</v>
+        <v>0.0744</v>
       </c>
       <c r="S3" s="8" t="n">
-        <v>0</v>
+        <v>0.0248</v>
       </c>
       <c r="T3" s="8" t="n">
-        <v>0</v>
+        <v>0.0248</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>0</v>
+        <v>0.0248</v>
       </c>
       <c r="V3" s="8" t="n">
-        <v>0</v>
+        <v>0.0744</v>
       </c>
       <c r="W3" s="8" t="n">
-        <v>0</v>
+        <v>0.2976</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Power Management Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Power Management Division.xlsx
@@ -580,7 +580,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.0197</v>
+        <v>0.0396</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.0197</v>
+        <v>0.0396</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -722,7 +722,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0197</v>
+        <v>0.0396</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -746,37 +746,37 @@
         <v>0.02</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.00394166666666667</v>
+        <v>0.0204</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.011825</v>
+        <v>0.04</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.00394166666666667</v>
+        <v>0.0066</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.00394166666666667</v>
+        <v>0.0066</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.00394166666666667</v>
+        <v>0.0066</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.011825</v>
+        <v>0.0198</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.00394166666666667</v>
+        <v>0.0066</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.00394166666666667</v>
+        <v>0.0066</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.00394166666666667</v>
+        <v>0.0066</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.011825</v>
+        <v>0.0198</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.0473</v>
+        <v>0.0792</v>
       </c>
     </row>
     <row r="5">
@@ -932,12 +932,8 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1" t="n">
         <v>0</v>
       </c>
@@ -980,7 +976,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0234</v>
+        <v>0.0233</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -1051,7 +1047,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0234</v>
+        <v>0.0233</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -1122,7 +1118,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.0234</v>
+        <v>0.0233</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1146,37 +1142,37 @@
         <v>0.0118</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>0.00468333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.01405</v>
+        <v>0.0229</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.00468333333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.00468333333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.00468333333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.01405</v>
+        <v>0.01165</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.00468333333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.00468333333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.00468333333333333</v>
+        <v>0.00388333333333333</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.01405</v>
+        <v>0.01165</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.0562</v>
+        <v>0.0466</v>
       </c>
     </row>
   </sheetData>
@@ -1444,37 +1440,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.0111166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.03335</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.03335</v>
+        <v>0.0278</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0111166666666667</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.03335</v>
+        <v>0.0278</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.1334</v>
+        <v>0.1112</v>
       </c>
     </row>
   </sheetData>
@@ -2205,37 +2201,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.00231666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.00695</v>
+        <v>0.0116</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.00231666666666667</v>
+        <v>0.00193333333333333</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.00231666666666667</v>
+        <v>0.00193333333333333</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.00231666666666667</v>
+        <v>0.00193333333333333</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.00695</v>
+        <v>0.0058</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.00231666666666667</v>
+        <v>0.00193333333333333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.00231666666666667</v>
+        <v>0.00193333333333333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.00231666666666667</v>
+        <v>0.00193333333333333</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.00695</v>
+        <v>0.0058</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.0278</v>
+        <v>0.0232</v>
       </c>
     </row>
     <row r="5">
@@ -2385,11 +2381,9 @@
       <c r="L7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="M7" s="4"/>
       <c r="N7" s="4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O7" s="4" t="n">
         <v>0.8</v>
@@ -2433,7 +2427,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>0.0343</v>
+        <v>0.0412</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2504,7 +2498,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>0.0343</v>
+        <v>0.0412</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2575,7 +2569,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>0.0343</v>
+        <v>0.0412</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2584,13 +2578,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.0068</v>
+        <v>0.0137</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.0069</v>
+        <v>0.0139</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>0.0135</v>
@@ -2599,37 +2593,37 @@
         <v>0.0136</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>0.00685833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.020575</v>
+        <v>0.0272</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.00685833333333333</v>
+        <v>0.00686666666666667</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.00685833333333333</v>
+        <v>0.00686666666666667</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.00685833333333333</v>
+        <v>0.00686666666666667</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.020575</v>
+        <v>0.0206</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.00685833333333333</v>
+        <v>0.00686666666666667</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.00685833333333333</v>
+        <v>0.00686666666666667</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0.00685833333333333</v>
+        <v>0.00686666666666667</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.020575</v>
+        <v>0.0206</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0.0823</v>
+        <v>0.0824</v>
       </c>
     </row>
   </sheetData>
@@ -2731,7 +2725,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.3704</v>
+        <v>0.3738</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2802,7 +2796,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.3704</v>
+        <v>0.3738</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2873,7 +2867,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.3704</v>
+        <v>0.3738</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2897,37 +2891,37 @@
         <v>0.2222</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.0740833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.22225</v>
+        <v>0.1942</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0740833333333333</v>
+        <v>0.0623</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.0740833333333333</v>
+        <v>0.0623</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.0740833333333333</v>
+        <v>0.0623</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.22225</v>
+        <v>0.1869</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.0740833333333333</v>
+        <v>0.0623</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.0740833333333333</v>
+        <v>0.0623</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.0740833333333333</v>
+        <v>0.0623</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.22225</v>
+        <v>0.1869</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0.889</v>
+        <v>0.7476</v>
       </c>
     </row>
     <row r="5">
@@ -3075,9 +3069,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5" t="n">
         <v>1</v>
       </c>
@@ -3684,7 +3676,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.2174</v>
+        <v>0.1818</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -3702,43 +3694,43 @@
         <v>0</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="8" t="n">
         <v>0</v>
       </c>
       <c r="M2" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0</v>
       </c>
       <c r="N2" s="8" t="n">
-        <v>0.13045</v>
+        <v>0.2</v>
       </c>
       <c r="O2" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0303</v>
       </c>
       <c r="P2" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0303</v>
       </c>
       <c r="Q2" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0303</v>
       </c>
       <c r="R2" s="8" t="n">
-        <v>0.13045</v>
+        <v>0.0909</v>
       </c>
       <c r="S2" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0303</v>
       </c>
       <c r="T2" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0303</v>
       </c>
       <c r="U2" s="8" t="n">
-        <v>0.0434833333333333</v>
+        <v>0.0303</v>
       </c>
       <c r="V2" s="8" t="n">
-        <v>0.13045</v>
+        <v>0.0909</v>
       </c>
       <c r="W2" s="8" t="n">
-        <v>0.5218</v>
+        <v>0.3636</v>
       </c>
     </row>
     <row r="3">
@@ -3755,7 +3747,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.124</v>
+        <v>0.1667</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -3779,37 +3771,37 @@
         <v>0</v>
       </c>
       <c r="M3" s="8" t="n">
-        <v>0.0248</v>
+        <v>0.0435</v>
       </c>
       <c r="N3" s="8" t="n">
-        <v>0.0744</v>
+        <v>0.1688</v>
       </c>
       <c r="O3" s="8" t="n">
-        <v>0.0248</v>
+        <v>0.0277833333333333</v>
       </c>
       <c r="P3" s="8" t="n">
-        <v>0.0248</v>
+        <v>0.0277833333333333</v>
       </c>
       <c r="Q3" s="8" t="n">
-        <v>0.0248</v>
+        <v>0.0277833333333333</v>
       </c>
       <c r="R3" s="8" t="n">
-        <v>0.0744</v>
+        <v>0.08335</v>
       </c>
       <c r="S3" s="8" t="n">
-        <v>0.0248</v>
+        <v>0.0277833333333333</v>
       </c>
       <c r="T3" s="8" t="n">
-        <v>0.0248</v>
+        <v>0.0277833333333333</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>0.0248</v>
+        <v>0.0277833333333333</v>
       </c>
       <c r="V3" s="8" t="n">
-        <v>0.0744</v>
+        <v>0.08335</v>
       </c>
       <c r="W3" s="8" t="n">
-        <v>0.2976</v>
+        <v>0.3334</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_AMC Power Management Division.xlsx
+++ b/outputs/SORs/SOR Testing_AMC Power Management Division.xlsx
@@ -580,7 +580,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.0396</v>
+        <v>0.0784</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.0396</v>
+        <v>0.0784</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -722,7 +722,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0396</v>
+        <v>0.0784</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -743,40 +743,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="M4" s="1" t="n">
         <v>0.02</v>
       </c>
-      <c r="M4" s="1" t="n">
-        <v>0.0204</v>
-      </c>
       <c r="N4" s="1" t="n">
-        <v>0.04</v>
+        <v>0.0392</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0066</v>
+        <v>0.0417</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.0198</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0066</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.0198</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.0792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -934,9 +934,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1" t="n">
         <v>0</v>
       </c>
@@ -1136,43 +1134,43 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>0.0114</v>
+        <v>0.0115</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>0.0118</v>
+        <v>0.0119</v>
       </c>
       <c r="M10" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="1" t="n">
-        <v>0.0229</v>
+        <v>0.0232</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>0.00388333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>0.00388333333333333</v>
+        <v>0.003325</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>0.00388333333333333</v>
+        <v>0.003325</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0.01165</v>
+        <v>0.009975</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0.00388333333333333</v>
+        <v>0.003325</v>
       </c>
       <c r="T10" s="1" t="n">
-        <v>0.00388333333333333</v>
+        <v>0.003325</v>
       </c>
       <c r="U10" s="1" t="n">
-        <v>0.00388333333333333</v>
+        <v>0.003325</v>
       </c>
       <c r="V10" s="1" t="n">
-        <v>0.01165</v>
+        <v>0.009975</v>
       </c>
       <c r="W10" s="1" t="n">
-        <v>0.0466</v>
+        <v>0.0399</v>
       </c>
     </row>
   </sheetData>
@@ -1446,31 +1444,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0278</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.0278</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.1112</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2033,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.0116</v>
+        <v>0.0233</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2106,7 +2104,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.0116</v>
+        <v>0.0233</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2177,7 +2175,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.0116</v>
+        <v>0.0233</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2207,31 +2205,31 @@
         <v>0.0116</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.00193333333333333</v>
+        <v>0.0119</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.00193333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.00193333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.00193333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.00193333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.00193333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.0058</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.0232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2385,9 +2383,7 @@
       <c r="N7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="4" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="O7" s="4"/>
       <c r="P7" s="4" t="n">
         <v>0.8</v>
       </c>
@@ -2599,31 +2595,31 @@
         <v>0.0272</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>0.00686666666666667</v>
+        <v>0</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>0.00686666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>0.00686666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.0206</v>
+        <v>0.01765</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.00686666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>0.00686666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0.00686666666666667</v>
+        <v>0.00588333333333333</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.0206</v>
+        <v>0.01765</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0.0824</v>
+        <v>0.0706</v>
       </c>
     </row>
   </sheetData>
@@ -2897,31 +2893,31 @@
         <v>0.1942</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0623</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.0623</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.0623</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.1869</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.0623</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.0623</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.0623</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.1869</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0.7476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3073,9 +3069,7 @@
       <c r="N7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="5"/>
       <c r="P7" s="5" t="n">
         <v>1</v>
       </c>
@@ -3676,7 +3670,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="8" t="n">
-        <v>0.1818</v>
+        <v>0.1852</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -3706,31 +3700,31 @@
         <v>0.2</v>
       </c>
       <c r="O2" s="8" t="n">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="P2" s="8" t="n">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="8" t="n">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="R2" s="8" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="S2" s="8" t="n">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8" t="n">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="U2" s="8" t="n">
-        <v>0.0303</v>
+        <v>0</v>
       </c>
       <c r="V2" s="8" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="W2" s="8" t="n">
-        <v>0.3636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3747,7 +3741,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="8" t="n">
-        <v>0.1667</v>
+        <v>0.1896</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -3765,43 +3759,43 @@
         <v>0</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>0.125</v>
+        <v>0.1429</v>
       </c>
       <c r="L3" s="8" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="8" t="n">
-        <v>0.0435</v>
+        <v>0.0476</v>
       </c>
       <c r="N3" s="8" t="n">
-        <v>0.1688</v>
+        <v>0.1905</v>
       </c>
       <c r="O3" s="8" t="n">
-        <v>0.0277833333333333</v>
+        <v>0</v>
       </c>
       <c r="P3" s="8" t="n">
-        <v>0.0277833333333333</v>
+        <v>0.0270833333333333</v>
       </c>
       <c r="Q3" s="8" t="n">
-        <v>0.0277833333333333</v>
+        <v>0.0270833333333333</v>
       </c>
       <c r="R3" s="8" t="n">
-        <v>0.08335</v>
+        <v>0.08125</v>
       </c>
       <c r="S3" s="8" t="n">
-        <v>0.0277833333333333</v>
+        <v>0.0270833333333333</v>
       </c>
       <c r="T3" s="8" t="n">
-        <v>0.0277833333333333</v>
+        <v>0.0270833333333333</v>
       </c>
       <c r="U3" s="8" t="n">
-        <v>0.0277833333333333</v>
+        <v>0.0270833333333333</v>
       </c>
       <c r="V3" s="8" t="n">
-        <v>0.08335</v>
+        <v>0.08125</v>
       </c>
       <c r="W3" s="8" t="n">
-        <v>0.3334</v>
+        <v>0.325</v>
       </c>
     </row>
   </sheetData>
